--- a/biology/Zoologie/Andrew_Jackson_Grayson/Andrew_Jackson_Grayson.xlsx
+++ b/biology/Zoologie/Andrew_Jackson_Grayson/Andrew_Jackson_Grayson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colonel Andrew Jackson Grayson est un militaire et un ornithologue américain né le 20 août 1819 à Grayson en Louisiane et mort le 17 août 1869 à Mazatlan d’un accès de paludisme.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père possédait une plantation de coton et le jeune Grayson grandit loin de tout établissement scolaire, passant son temps dans la nature où il observait la faune. Ce n'est qu'à dix ans qu'une école est construite près de chez lui et il commence à suivre le mauvais enseignement qui y est délivré. Il est un jour sévèrement puni pour avoir dessiné durant les cours, son père l'envoie alors au St. Mary's College de Saint Louis avec l'interdiction d'y étudier les arts.
 Un an après son retour du collège, son père meurt. Grayson investit alors son petit héritage dans un commerce mais il passe son temps à parcourir la campagne et il fait bientôt faillite. Il décide avec sa femme, Frances J. Timmons et après la naissance de son seul enfant, de partir vers la Californie. Il part le 15 avril 1846. Le voyage se fait difficilement et le convoi dans lequel il se trouve se faisant attaquer par des Amérindiens, Grayson doit abandonner son charriot afin de passer les montagnes. Il atteint la Californie le 12 octobre 1846.
@@ -551,7 +565,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Andrew J. Grayson : The Audubon of the Pacific (1933), Juliette Mouron Hood, The Auk, 50 : p. 396-402.
 Andrew Jackson Grayson (1949), Lois Chambers Taylor, The Condor, 51 (2) : p. 49-51.</t>
